--- a/Price List/Roboter Arm Main Controller.xlsx
+++ b/Price List/Roboter Arm Main Controller.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TH24\Desktop\Hardware\Robotic-Arm\Price List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD755C25-CC2D-483F-A550-734C8EFA0C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65614FC3-5A7D-4E56-AF90-F8F6261AD16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="0" windowWidth="23190" windowHeight="14535" xr2:uid="{6B6AC393-9DA6-4B7B-AC95-3B83A5A5BB6E}"/>
+    <workbookView xWindow="2940" yWindow="945" windowWidth="26025" windowHeight="14535" xr2:uid="{6B6AC393-9DA6-4B7B-AC95-3B83A5A5BB6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Roboter Arm Main Controller" sheetId="1" r:id="rId1"/>
@@ -550,7 +550,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -576,6 +576,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -638,7 +650,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -649,6 +661,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Berechnung" xfId="3" builtinId="22"/>
@@ -970,12 +984,14 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="A3" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="20" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="60.140625" customWidth="1"/>
+    <col min="3" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1006,7 +1022,7 @@
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1029,7 +1045,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1050,7 +1066,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1074,7 +1090,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1100,7 +1116,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1127,7 +1143,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1154,7 +1170,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1181,7 +1197,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1205,7 +1221,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1231,7 +1247,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1257,7 +1273,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1283,7 +1299,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1309,7 +1325,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1335,7 +1351,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1361,7 +1377,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1387,7 +1403,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="11" t="s">
         <v>79</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1413,7 +1429,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="11" t="s">
         <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1440,7 +1456,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="11" t="s">
         <v>89</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1467,7 +1483,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="11" t="s">
         <v>94</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1494,7 +1510,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="10" t="s">
         <v>152</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1514,7 +1530,7 @@
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="11" t="s">
         <v>99</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1540,7 +1556,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="10" t="s">
         <v>104</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1566,7 +1582,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="11" t="s">
         <v>109</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1592,7 +1608,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="10" t="s">
         <v>114</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1615,7 +1631,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="11" t="s">
         <v>119</v>
       </c>
       <c r="B26" s="2" t="s">

--- a/Price List/Roboter Arm Main Controller.xlsx
+++ b/Price List/Roboter Arm Main Controller.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TH24\Desktop\Hardware\Robotic-Arm\Price List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65614FC3-5A7D-4E56-AF90-F8F6261AD16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB736525-F68C-4D9C-A9B1-EB94639F7DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="945" windowWidth="26025" windowHeight="14535" xr2:uid="{6B6AC393-9DA6-4B7B-AC95-3B83A5A5BB6E}"/>
   </bookViews>
@@ -984,13 +984,13 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:A3"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="60.140625" customWidth="1"/>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="74.140625" customWidth="1"/>
     <col min="3" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="18.140625" customWidth="1"/>
   </cols>
